--- a/Feb'2021/21.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/21.02.2021/Bank Statement.xlsx
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="182">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -710,13 +710,13 @@
     <t>Jafor Bkash(-)</t>
   </si>
   <si>
-    <t>Date :22-02-2021</t>
-  </si>
-  <si>
     <t>Date:21.02.2021</t>
   </si>
   <si>
     <t>21.02.2021</t>
+  </si>
+  <si>
+    <t>Date :23-02-2021</t>
   </si>
 </sst>
 </file>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="23" spans="1:23" s="104" customFormat="1">
       <c r="A23" s="201" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="205"/>
       <c r="C23" s="206">
@@ -8649,7 +8649,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8683,7 +8683,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75">
       <c r="A2" s="293" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="294"/>
       <c r="C2" s="294"/>
@@ -8731,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="85">
-        <v>1180873.0625</v>
+        <v>1215231.0864999997</v>
       </c>
       <c r="F5" s="4"/>
       <c r="J5" s="135" t="s">
@@ -8776,7 +8776,9 @@
       <c r="D7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="86"/>
+      <c r="E7" s="86">
+        <v>158599</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="J7" s="135" t="s">
         <v>73</v>
@@ -8800,7 +8802,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="87">
-        <v>102928</v>
+        <v>68570</v>
       </c>
       <c r="F8" s="3"/>
       <c r="J8" s="135" t="s">
@@ -8873,7 +8875,7 @@
       <c r="G11" s="138"/>
       <c r="H11" s="24">
         <f>B15-E15</f>
-        <v>158599.02399999974</v>
+        <v>0</v>
       </c>
       <c r="I11" s="138"/>
       <c r="J11" s="135" t="s">
@@ -8962,7 +8964,7 @@
       </c>
       <c r="E15" s="87">
         <f>SUM(E5:E13)</f>
-        <v>1763722.7180000003</v>
+        <v>1922321.7420000001</v>
       </c>
       <c r="F15" s="23"/>
       <c r="J15" s="135" t="s">
@@ -9111,8 +9113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:V23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9219,7 +9221,7 @@
     </row>
     <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="307" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B5" s="308"/>
       <c r="C5" s="307" t="s">
@@ -10938,7 +10940,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11507,7 +11509,9 @@
         <v>13</v>
       </c>
       <c r="B19" s="178"/>
-      <c r="C19" s="122"/>
+      <c r="C19" s="122" t="s">
+        <v>56</v>
+      </c>
       <c r="D19" s="146"/>
       <c r="E19" s="139"/>
       <c r="F19" s="165"/>
@@ -11519,7 +11523,9 @@
       <c r="L19" s="165"/>
       <c r="M19" s="166"/>
       <c r="N19" s="179"/>
-      <c r="O19" s="179"/>
+      <c r="O19" s="179">
+        <v>3</v>
+      </c>
       <c r="P19" s="179"/>
       <c r="Q19" s="182"/>
     </row>
@@ -11747,7 +11753,7 @@
       </c>
       <c r="O28" s="148">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P28" s="148">
         <f t="shared" si="0"/>
